--- a/캠핑준비.xlsx
+++ b/캠핑준비.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\01_Repo\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A52E51-5B73-486C-BA8B-CF1A1FCBEEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2FA6BA-50F3-44FC-B701-4DDCBDF34832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="615" windowWidth="26340" windowHeight="14685" xr2:uid="{B35C64D8-44DB-4A7D-B642-3EC43ECC7117}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35C64D8-44DB-4A7D-B642-3EC43ECC7117}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>육류</t>
   </si>
@@ -108,18 +106,45 @@
   </si>
   <si>
     <t>라면</t>
+  </si>
+  <si>
+    <t>망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,7 +195,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,16 +494,16 @@
   <dimension ref="B3:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -497,11 +522,14 @@
       <c r="M3" t="s">
         <v>13</v>
       </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
       <c r="R3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -520,8 +548,11 @@
       <c r="M4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -537,36 +568,47 @@
       <c r="M5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="H8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="H10" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>